--- a/RawPrices.xlsx
+++ b/RawPrices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8700"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="RawPrices" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>Reliance</t>
   </si>
   <si>
-    <t>NIFTY 500</t>
+    <t>NIFTY 50</t>
   </si>
 </sst>
 </file>
@@ -75,7 +75,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +85,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -563,155 +556,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,7 +1235,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1293,7 +1280,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
@@ -1302,37 +1289,37 @@
       <c r="B2" s="3">
         <v>448.6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>505.8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>742.6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>28.4</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1287.4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2046.3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>122.8</v>
       </c>
       <c r="I2" s="3">
         <v>877.5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>1638.5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>1483.2</v>
       </c>
-      <c r="L2" s="7">
-        <v>23985.4</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="L2" s="4">
+        <v>26129.6</v>
+      </c>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
@@ -1341,37 +1328,37 @@
       <c r="B3" s="3">
         <v>442.8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>498.6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>735.8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>27.9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1279.6</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>2032.8</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>121.4</v>
       </c>
       <c r="I3" s="3">
         <v>872.2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>1645.2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1475.3</v>
       </c>
-      <c r="L3" s="7">
-        <v>23885.2</v>
-      </c>
-      <c r="M3" s="6"/>
+      <c r="L3" s="4">
+        <v>26146.55</v>
+      </c>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
@@ -1380,37 +1367,37 @@
       <c r="B4" s="3">
         <v>439.1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>492.4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>728.4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>27.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1271.2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>2018.6</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>120.1</v>
       </c>
       <c r="I4" s="3">
         <v>869.8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>1638</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>1470.6</v>
       </c>
-      <c r="L4" s="7">
-        <v>23811.4</v>
-      </c>
-      <c r="M4" s="6"/>
+      <c r="L4" s="4">
+        <v>26328.55</v>
+      </c>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
@@ -1419,37 +1406,35 @@
       <c r="B5" s="3">
         <v>435.5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>486.9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>720.9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>26.8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1298.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>2059.4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>123.6</v>
       </c>
       <c r="I5" s="3">
         <v>882.1</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>1652.8</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>1504.2</v>
       </c>
-      <c r="L5" s="7">
-        <v>23854.9</v>
-      </c>
-      <c r="M5" s="6"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
@@ -1458,37 +1443,35 @@
       <c r="B6" s="3">
         <v>441.2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>501.2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>739.2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>27.6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1305.3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2071.2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>124.9</v>
       </c>
       <c r="I6" s="3">
         <v>889.3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>1658.4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>1507.6</v>
       </c>
-      <c r="L6" s="7">
-        <v>23940.6</v>
-      </c>
-      <c r="M6" s="6"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
@@ -1497,37 +1480,37 @@
       <c r="B7" s="3">
         <v>445.9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>508.3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>748.6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>28.1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1319.8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2084.9</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>126.3</v>
       </c>
       <c r="I7" s="3">
         <v>895.4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>1672.3</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>1578.1</v>
       </c>
-      <c r="L7" s="7">
-        <v>23811.2</v>
-      </c>
-      <c r="M7" s="6"/>
+      <c r="L7" s="4">
+        <v>26250.3</v>
+      </c>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
@@ -1536,37 +1519,37 @@
       <c r="B8" s="3">
         <v>459.4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>515.7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>755.4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>28.7</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1332.4</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>2101.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>127.8</v>
       </c>
       <c r="I8" s="3">
         <v>902.9</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>1685.5</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>1592.3</v>
       </c>
-      <c r="L8" s="7">
-        <v>23982.9</v>
-      </c>
-      <c r="M8" s="6"/>
+      <c r="L8" s="4">
+        <v>26178.7</v>
+      </c>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
@@ -1575,37 +1558,37 @@
       <c r="B9" s="3">
         <v>467.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>522.6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>762.3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>29.2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>1326.9</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>2094.7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>126.9</v>
       </c>
       <c r="I9" s="3">
         <v>898.6</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1675.8</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>1575.6</v>
       </c>
-      <c r="L9" s="7">
-        <v>24196.4</v>
-      </c>
-      <c r="M9" s="6"/>
+      <c r="L9" s="4">
+        <v>26140.75</v>
+      </c>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
@@ -1614,37 +1597,37 @@
       <c r="B10" s="3">
         <v>464.1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>519.4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>758.1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>28.9</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1321.7</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2088.3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>125.7</v>
       </c>
       <c r="I10" s="3">
         <v>893.5</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>1668.2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>1570.4</v>
       </c>
-      <c r="L10" s="7">
-        <v>24044.3</v>
-      </c>
-      <c r="M10" s="6"/>
+      <c r="L10" s="4">
+        <v>25876.85</v>
+      </c>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
@@ -1653,37 +1636,37 @@
       <c r="B11" s="3">
         <v>458.3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>514.8</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>752.8</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>28.4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1315.2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>2079.6</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>124.6</v>
       </c>
       <c r="I11" s="3">
         <v>889.2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>1655.3</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>1539.8</v>
       </c>
-      <c r="L11" s="7">
-        <v>23946.1</v>
-      </c>
-      <c r="M11" s="6"/>
+      <c r="L11" s="4">
+        <v>25683.3</v>
+      </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
@@ -1692,37 +1675,35 @@
       <c r="B12" s="3">
         <v>455.5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>509.3</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>746.9</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>29.9</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1316.8</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>2075.9</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>123.9</v>
       </c>
       <c r="I12" s="3">
         <v>886.9</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>1654.7</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>1532.7</v>
       </c>
-      <c r="L12" s="7">
-        <v>23875.4</v>
-      </c>
-      <c r="M12" s="6"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
